--- a/assets/generated/model4/CustomerVehicleTripMap.xlsx
+++ b/assets/generated/model4/CustomerVehicleTripMap.xlsx
@@ -366,7 +366,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -374,7 +374,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0</v>

--- a/assets/generated/model4/CustomerVehicleTripMap.xlsx
+++ b/assets/generated/model4/CustomerVehicleTripMap.xlsx
@@ -390,7 +390,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -398,7 +398,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>0</v>
